--- a/Documentation/ISA.xlsx
+++ b/Documentation/ISA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="21075" windowHeight="7740"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="19440" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,14 @@
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>foobar</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,14 +357,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Documentation/ISA.xlsx
+++ b/Documentation/ISA.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>foobar</t>
+  </si>
+  <si>
+    <t>dddd</t>
   </si>
 </sst>
 </file>
@@ -357,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D10"/>
+  <dimension ref="D10:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -370,6 +373,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/ISA.xlsx
+++ b/Documentation/ISA.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="360" yWindow="30" windowWidth="19440" windowHeight="7740"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Add" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,25 +16,80 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>foobar</t>
-  </si>
-  <si>
-    <t>dddd</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Instruction</t>
+  </si>
+  <si>
+    <t>OPCode</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>Flags</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>Memory Addressing</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>00: Direct
+01: Indirect
+10: Immediate</t>
+  </si>
+  <si>
+    <t>ADD FLAG OPERAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adds the specified operand to the current contents of the ACC register. The Output from the ALU will be returned to the ACC register. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ACC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>← ACC + OPERAND</t>
+    </r>
+  </si>
+  <si>
+    <t>Immediate, Direct, and Indirect</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -57,8 +112,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,26 +424,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D10:D11"/>
+  <dimension ref="B6:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
+    <row r="6" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documentation/ISA.xlsx
+++ b/Documentation/ISA.xlsx
@@ -4,19 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="19440" windowHeight="7740"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="19440" windowHeight="7740" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Add" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sub" sheetId="2" r:id="rId2"/>
+    <sheet name="Multiply DIV" sheetId="3" r:id="rId3"/>
+    <sheet name="Or" sheetId="4" r:id="rId4"/>
+    <sheet name="And" sheetId="5" r:id="rId5"/>
+    <sheet name="COMP" sheetId="6" r:id="rId6"/>
+    <sheet name="SHIFT" sheetId="7" r:id="rId7"/>
+    <sheet name="Branch Conditional" sheetId="8" r:id="rId8"/>
+    <sheet name="Branch Unconditional" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="65">
   <si>
     <t>Instruction</t>
   </si>
@@ -71,6 +77,262 @@
   </si>
   <si>
     <t>Immediate, Direct, and Indirect</t>
+  </si>
+  <si>
+    <t>SUB</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>SUB FLAG OPERAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subtracts the specified operand from the current contents of the ACC register. The Output from the ALU will be returned to the ACC register. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ACC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>← ACC - OPERAND</t>
+    </r>
+  </si>
+  <si>
+    <t>MUL</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>00: Direct
+01: Indirect</t>
+  </si>
+  <si>
+    <t>MUL FLAG OPERAND [Lower 4 bits]</t>
+  </si>
+  <si>
+    <t>Performs multiplication on lower 4-bits of Accumulator and lower 4-bits of the operand.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ACC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>← ACC * OPERAND</t>
+    </r>
+  </si>
+  <si>
+    <t>Direct and Indirect</t>
+  </si>
+  <si>
+    <t>DIV</t>
+  </si>
+  <si>
+    <t>10: Direct
+11: Indirect</t>
+  </si>
+  <si>
+    <t>DIV FLAG OPERAND [Lower 4 bits]</t>
+  </si>
+  <si>
+    <t>Performs division on lower 4-bits of Accumulator and lower 4-bits of the operand.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ACC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>← ACC / OPERAND</t>
+    </r>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>OR FLAG OPERAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perform a LOGICAL OR operation of contents in Acccumulator and OPERAND. The result of the operation will be stored in the accumulator. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ACC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>← ACC | OPERAND</t>
+    </r>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>AND FLAG OPERAND</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ACC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>← ACC &amp; OPERAND</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Perform a LOGICAL AND operation of contents in Acccumulator and OPERAND. The result of the operation will be stored in the accumulator. </t>
+  </si>
+  <si>
+    <t>COMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perform LOGICAL complement/Negation on the contents of the accumulator register. The complement will be stored in the accumulator register. </t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ACC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>← NOT ACC</t>
+    </r>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>00: Left Shift in 0
+01: Left Shift in 1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ACC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>← ACC [N-2:0 + (FLAG BIT)]</t>
+    </r>
+  </si>
+  <si>
+    <t>SHFT</t>
+  </si>
+  <si>
+    <t>SHFT FLAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performs a LEFT SHIFT operation on the contents of the accumulator register. The value of the bit shifted in is dependent upon the provided flag. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performs a RIGHT SHIFT operation on the contents of the accumulator register. The value of the bit shifted in is dependent upon the provided flag. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ACC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>← ACC [(FLAG BIT) + N-1:1]</t>
+    </r>
+  </si>
+  <si>
+    <t>10: Right Shift in 0
+11: Right Shift in 1</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>00: Branch if equal</t>
+  </si>
+  <si>
+    <t>BRA FLAG OPERAND</t>
+  </si>
+  <si>
+    <t>Performs a comparison between the Accumulator and XXX. If true, jump to instruction pointed to by OPERAND.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>←IP + OPERAND</t>
+    </r>
+  </si>
+  <si>
+    <t>JMP</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>JUMP OPERAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Executes an unconditional branch. When encountered the instruction pointer is adjusted to the operand target memory address. </t>
   </si>
 </sst>
 </file>
@@ -112,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -122,6 +384,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,24 +769,705 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C4:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C4:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentation/ISA.xlsx
+++ b/Documentation/ISA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="19440" windowHeight="7740" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="19440" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Add" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="76">
   <si>
     <t>Instruction</t>
   </si>
@@ -333,6 +333,39 @@
   </si>
   <si>
     <t xml:space="preserve">Executes an unconditional branch. When encountered the instruction pointer is adjusted to the operand target memory address. </t>
+  </si>
+  <si>
+    <t>OPCODE</t>
+  </si>
+  <si>
+    <t>FLAG</t>
+  </si>
+  <si>
+    <t>OPERAND</t>
+  </si>
+  <si>
+    <t>Bits</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>15:12</t>
+  </si>
+  <si>
+    <t>11:10</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>RAM ADDR / INTEGER</t>
   </si>
 </sst>
 </file>
@@ -362,7 +395,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -370,11 +403,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -387,6 +435,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,19 +746,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:C16"/>
+  <dimension ref="B6:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="50.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -709,7 +771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -717,7 +779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -725,7 +787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
@@ -733,7 +795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -741,7 +803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
@@ -749,7 +811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
@@ -757,10 +819,49 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -771,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1401,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
